--- a/tests/ISADotnet.Tests.NetCore/ISADotnet/TestFiles/new.isa.investigation.xlsx
+++ b/tests/ISADotnet.Tests.NetCore/ISADotnet/TestFiles/new.isa.investigation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="isa_investigation" sheetId="1" r:id="R6c252ee584294201"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="isa_investigation" sheetId="1" r:id="Rc40b18ca2cb742d2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/tests/ISADotnet.Tests.NetCore/ISADotnet/TestFiles/new.isa.investigation.xlsx
+++ b/tests/ISADotnet.Tests.NetCore/ISADotnet/TestFiles/new.isa.investigation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="isa_investigation" sheetId="1" r:id="Rc40b18ca2cb742d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="isa_investigation" sheetId="1" r:id="Rc67f8fb6c0aa4758"/>
   </x:sheets>
 </x:workbook>
 </file>
